--- a/AOMmaster/AOM Analogue Output Ports.xlsx
+++ b/AOMmaster/AOM Analogue Output Ports.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak905\Dropbox\shared\EURYBIA\LASER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Nav2019\Navigator\AOMmaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0B4F4F-D61D-427A-9E0B-544072F1F127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15710" yWindow="1730" windowWidth="6610" windowHeight="4940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15705" yWindow="1725" windowWidth="6615" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Type</t>
   </si>
@@ -118,12 +118,60 @@
   </si>
   <si>
     <t>Digital channel</t>
+  </si>
+  <si>
+    <t>Channel name</t>
+  </si>
+  <si>
+    <t>Device number</t>
+  </si>
+  <si>
+    <t>Channel number</t>
+  </si>
+  <si>
+    <t>3DMOTCoil</t>
+  </si>
+  <si>
+    <t>xbias3DCoil</t>
+  </si>
+  <si>
+    <t>ybias3DCoil</t>
+  </si>
+  <si>
+    <t>zbias3DCoil</t>
+  </si>
+  <si>
+    <t>2DMOTCoil</t>
+  </si>
+  <si>
+    <t>xbias2DCoil</t>
+  </si>
+  <si>
+    <t>ybias2DCoil</t>
+  </si>
+  <si>
+    <t>Det TTL</t>
+  </si>
+  <si>
+    <t>FreeDO1</t>
+  </si>
+  <si>
+    <t>M2TTL</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>VCA</t>
+  </si>
+  <si>
+    <t>VCO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,16 +566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -561,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -578,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -595,7 +643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -612,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -629,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -646,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -663,7 +711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -680,7 +728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -689,7 +737,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -697,6 +745,160 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
